--- a/data/hotels_by_city/Houston/Houston_shard_495.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_495.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56045-d244311-Reviews-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +145,261 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r331989318-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>56045</t>
+  </si>
+  <si>
+    <t>244311</t>
+  </si>
+  <si>
+    <t>331989318</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complimentary roaches </t>
+  </si>
+  <si>
+    <t>You get what you pay for.  I've stayed at this hotel several times to save money during my expensive trips to Texas.  The lady at the front desk is the only really great thing about this motel.  She's very welcoming.  The rooms, however are not adequately cleaned.  Ash trays were provided in every room I've been in, and the rooms reek of stale cigarettes, even though they're "non smoking."  The floors are hard laminate, that have a sort of dirty bamboo print.  There are black specs all over the floor---some of it is part of the design, TOO much of it is dirt and dead and/or live bugs.  I saw a roach on my floor every night this visit, and caught one under their plastic cup because I'm terrified of the things.   The sheets are dingy and stained with cigarette burn holes and god knows what else.  My sink this visit was slow to drain and I gagged when I looked inside to see a massive black hair clog float up every time I turned the water on.  There's black hair (I'm blonde!) all over the sink and this room has supposedly been cleaned twice now.  Water or urine stains on bathroom wall.  It's yellow.  Parking is very limited.  I'm not sure $40 is worth it because it's 4am and I'm afraid to put it head down for fear of what may crawl on or in me during sleep.  Oh,...You get what you pay for.  I've stayed at this hotel several times to save money during my expensive trips to Texas.  The lady at the front desk is the only really great thing about this motel.  She's very welcoming.  The rooms, however are not adequately cleaned.  Ash trays were provided in every room I've been in, and the rooms reek of stale cigarettes, even though they're "non smoking."  The floors are hard laminate, that have a sort of dirty bamboo print.  There are black specs all over the floor---some of it is part of the design, TOO much of it is dirt and dead and/or live bugs.  I saw a roach on my floor every night this visit, and caught one under their plastic cup because I'm terrified of the things.   The sheets are dingy and stained with cigarette burn holes and god knows what else.  My sink this visit was slow to drain and I gagged when I looked inside to see a massive black hair clog float up every time I turned the water on.  There's black hair (I'm blonde!) all over the sink and this room has supposedly been cleaned twice now.  Water or urine stains on bathroom wall.  It's yellow.  Parking is very limited.  I'm not sure $40 is worth it because it's 4am and I'm afraid to put it head down for fear of what may crawl on or in me during sleep.  Oh, and the trash can outside was overflowing with food and feral cats were everywhere, loudly mating.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Houston - Jersey Village, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for.  I've stayed at this hotel several times to save money during my expensive trips to Texas.  The lady at the front desk is the only really great thing about this motel.  She's very welcoming.  The rooms, however are not adequately cleaned.  Ash trays were provided in every room I've been in, and the rooms reek of stale cigarettes, even though they're "non smoking."  The floors are hard laminate, that have a sort of dirty bamboo print.  There are black specs all over the floor---some of it is part of the design, TOO much of it is dirt and dead and/or live bugs.  I saw a roach on my floor every night this visit, and caught one under their plastic cup because I'm terrified of the things.   The sheets are dingy and stained with cigarette burn holes and god knows what else.  My sink this visit was slow to drain and I gagged when I looked inside to see a massive black hair clog float up every time I turned the water on.  There's black hair (I'm blonde!) all over the sink and this room has supposedly been cleaned twice now.  Water or urine stains on bathroom wall.  It's yellow.  Parking is very limited.  I'm not sure $40 is worth it because it's 4am and I'm afraid to put it head down for fear of what may crawl on or in me during sleep.  Oh,...You get what you pay for.  I've stayed at this hotel several times to save money during my expensive trips to Texas.  The lady at the front desk is the only really great thing about this motel.  She's very welcoming.  The rooms, however are not adequately cleaned.  Ash trays were provided in every room I've been in, and the rooms reek of stale cigarettes, even though they're "non smoking."  The floors are hard laminate, that have a sort of dirty bamboo print.  There are black specs all over the floor---some of it is part of the design, TOO much of it is dirt and dead and/or live bugs.  I saw a roach on my floor every night this visit, and caught one under their plastic cup because I'm terrified of the things.   The sheets are dingy and stained with cigarette burn holes and god knows what else.  My sink this visit was slow to drain and I gagged when I looked inside to see a massive black hair clog float up every time I turned the water on.  There's black hair (I'm blonde!) all over the sink and this room has supposedly been cleaned twice now.  Water or urine stains on bathroom wall.  It's yellow.  Parking is very limited.  I'm not sure $40 is worth it because it's 4am and I'm afraid to put it head down for fear of what may crawl on or in me during sleep.  Oh, and the trash can outside was overflowing with food and feral cats were everywhere, loudly mating.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r315102109-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>315102109</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Bed bugs!!!</t>
+  </si>
+  <si>
+    <t>Stayed there. Woke up with this next morning with bite marks. Customer service was terrible! Staff acted shady when bed bugs were reported to them. Went to get refund next day. Was told they put someone else in same room that had bed bugs. Smh.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Houston - Jersey Village, responded to this reviewResponded October 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2015</t>
+  </si>
+  <si>
+    <t>Stayed there. Woke up with this next morning with bite marks. Customer service was terrible! Staff acted shady when bed bugs were reported to them. Went to get refund next day. Was told they put someone else in same room that had bed bugs. Smh.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r286972107-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>286972107</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible </t>
+  </si>
+  <si>
+    <t>This is the most nastiest ghetto place I ever stayed at. They have kids walking around pushing on other people doors .the manager just stand there a watch them and the sad part her child is in it too .the room are stick like it's not been clean in mouths. You can't complain to the manager .she says deal with it or leave .if you have a choice between sleeping in you car or the I would sleep in the car because it's a waste of money to go there MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Houston - Jersey Village, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>This is the most nastiest ghetto place I ever stayed at. They have kids walking around pushing on other people doors .the manager just stand there a watch them and the sad part her child is in it too .the room are stick like it's not been clean in mouths. You can't complain to the manager .she says deal with it or leave .if you have a choice between sleeping in you car or the I would sleep in the car because it's a waste of money to go there More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r239846658-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>239846658</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>Mostly ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms here were spacious and clean, and check-in was efficient. The neighborhood behind the hotel was good for a short run in the morning. However there were a few small ants in the bathroom near the baseboards and the shower water mysteriously went lukewarm in the morning. </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r227168151-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>227168151</t>
+  </si>
+  <si>
+    <t>09/05/2014</t>
+  </si>
+  <si>
+    <t>Stay away</t>
+  </si>
+  <si>
+    <t>Last year I stayed here and after driving for two days, we were highly upset to have no hot water. They were booked up so we couldn't switch rooms, I'm sure the coca roach had a better time than we did. I decided to give the place another chance even calling before I came. Check in at three but we were told four times that the room was not ready. Finally at a little after five we were able to check in. There was a stain on one bed, blood on the wall and when we walked in it smelled like marajana. We didn't complain because we were so tired. We checked out the next day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Last year I stayed here and after driving for two days, we were highly upset to have no hot water. They were booked up so we couldn't switch rooms, I'm sure the coca roach had a better time than we did. I decided to give the place another chance even calling before I came. Check in at three but we were told four times that the room was not ready. Finally at a little after five we were able to check in. There was a stain on one bed, blood on the wall and when we walked in it smelled like marajana. We didn't complain because we were so tired. We checked out the next day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r220979819-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>220979819</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Horrible with a capital H</t>
+  </si>
+  <si>
+    <t>Made the reservation online. Got there front desk person pleasant. Opened the room door, no carpet, cheap linoleum with dried mud prints. Bed cover was dingy with cuts in it. Sink counter had large dried water spots. Toilet had black mold and a ring in it. Tub looked like it had been patched, unsuccessfully around the spout and toggle drain. Bed was a mattress on a wooden like frame. You had to pay for wi-fi. Went back to front desk and reported the conditions. The clerk said they clean the rooms everyday. Ummm CLEARLY someone was skipping THIS one for quite some time! A positive-she was pleasant when we requested a refund.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Made the reservation online. Got there front desk person pleasant. Opened the room door, no carpet, cheap linoleum with dried mud prints. Bed cover was dingy with cuts in it. Sink counter had large dried water spots. Toilet had black mold and a ring in it. Tub looked like it had been patched, unsuccessfully around the spout and toggle drain. Bed was a mattress on a wooden like frame. You had to pay for wi-fi. Went back to front desk and reported the conditions. The clerk said they clean the rooms everyday. Ummm CLEARLY someone was skipping THIS one for quite some time! A positive-she was pleasant when we requested a refund.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r202092851-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>202092851</t>
+  </si>
+  <si>
+    <t>04/21/2014</t>
+  </si>
+  <si>
+    <t>Nice but noisy</t>
+  </si>
+  <si>
+    <t>I stayed 4 nights, the room was clean all around, nice big bed and table. The only thing I didn't like was that it was noisy from people walking and screaming outside up till 2 in the morning, maybe because I was near the stairs but still I could even hear the noise from the cars. Staff at the front desk was extremely nice when I arrived, big smiles. There is a nice taco restaurant across from it and a cheap gas station a mile away.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r153090920-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>153090920</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Nice and quiet</t>
+  </si>
+  <si>
+    <t>This was a nice well kept room and quiet. The Staff were friendly on arrival and departure! It was easy to find, parking was good.. outer areas were kept clean and the room upgrades were really nice. Made the room look much larger and better for the price. I was very happy.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r141537389-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>141537389</t>
+  </si>
+  <si>
+    <t>09/28/2012</t>
+  </si>
+  <si>
+    <t>Clean, quiet, and very inexpensive</t>
+  </si>
+  <si>
+    <t>I expect a low-end motel to have some problems, but this one had none. My room was clean. The parking was well lit and ample. The front desk was efficient (if somewhat laid back). There is a Mexican restaurant (Taqueria Arandas) within walking distance. This Motel 6 is one of those places where you get more than you paid for ($36.99/night). You do have to pay extra for wifi ($2.99/ day), but even so, it's a bargain. I stayed for six days on a business trip, and the only negatives were: no microwave or fridge, and you have to go to the front desk every evening to renew your wifi ("That's the way the boss wants it," the clerk said.) A bargain.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I expect a low-end motel to have some problems, but this one had none. My room was clean. The parking was well lit and ample. The front desk was efficient (if somewhat laid back). There is a Mexican restaurant (Taqueria Arandas) within walking distance. This Motel 6 is one of those places where you get more than you paid for ($36.99/night). You do have to pay extra for wifi ($2.99/ day), but even so, it's a bargain. I stayed for six days on a business trip, and the only negatives were: no microwave or fridge, and you have to go to the front desk every evening to renew your wifi ("That's the way the boss wants it," the clerk said.) A bargain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r52612771-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>52612771</t>
+  </si>
+  <si>
+    <t>01/04/2010</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>New rooms, lights work, tv works, no bugs seen even on the 1st floor in Houston!</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r38893795-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>38893795</t>
+  </si>
+  <si>
+    <t>08/26/2009</t>
+  </si>
+  <si>
+    <t>Terrible Motel</t>
+  </si>
+  <si>
+    <t>This place sucks big time.  If you can, just pay a few more dollars and stay somewhere else.  First off, upon check in when i went to my room, there were no towels at all.  When I attempted to go to the guest counter to obtain more, there weren't any.  So I thought that i would wait until morning to get some then, however there still were no towels.  I was then told that the only person that had a key to the towel room hadn't arrived yet.  When I asked for a manager, the girl behind the counter acted dumbfounded.  She said that she was new and didn't haven't contact info or no how to help me.  So you mean to tell me if she is there by herself and the place catches on fire, she doesn't know who to call.  PLEASE!  In order to get clean towels, which should have been in the room upon check in to begin with, I had to call the corporate office.  Then low and behold, all of a sudden I look out the window and what do I see, but a sorry "A" manager waltz accross the parking lot to the towel closet to bring me my towels.  So the sorry son of a gun was sitting in the back of the office the whole time.  Also there were ants in my room all over the sink, so nothing was able to...This place sucks big time.  If you can, just pay a few more dollars and stay somewhere else.  First off, upon check in when i went to my room, there were no towels at all.  When I attempted to go to the guest counter to obtain more, there weren't any.  So I thought that i would wait until morning to get some then, however there still were no towels.  I was then told that the only person that had a key to the towel room hadn't arrived yet.  When I asked for a manager, the girl behind the counter acted dumbfounded.  She said that she was new and didn't haven't contact info or no how to help me.  So you mean to tell me if she is there by herself and the place catches on fire, she doesn't know who to call.  PLEASE!  In order to get clean towels, which should have been in the room upon check in to begin with, I had to call the corporate office.  Then low and behold, all of a sudden I look out the window and what do I see, but a sorry "A" manager waltz accross the parking lot to the towel closet to bring me my towels.  So the sorry son of a gun was sitting in the back of the office the whole time.  Also there were ants in my room all over the sink, so nothing was able to be left out over there.  And the renovations that they brag about on line are not all that.  the picture that they post on the site is just that, a picture.  i don't know where its a picture of, but its sure NOT this place.  DO NOT STAY HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This place sucks big time.  If you can, just pay a few more dollars and stay somewhere else.  First off, upon check in when i went to my room, there were no towels at all.  When I attempted to go to the guest counter to obtain more, there weren't any.  So I thought that i would wait until morning to get some then, however there still were no towels.  I was then told that the only person that had a key to the towel room hadn't arrived yet.  When I asked for a manager, the girl behind the counter acted dumbfounded.  She said that she was new and didn't haven't contact info or no how to help me.  So you mean to tell me if she is there by herself and the place catches on fire, she doesn't know who to call.  PLEASE!  In order to get clean towels, which should have been in the room upon check in to begin with, I had to call the corporate office.  Then low and behold, all of a sudden I look out the window and what do I see, but a sorry "A" manager waltz accross the parking lot to the towel closet to bring me my towels.  So the sorry son of a gun was sitting in the back of the office the whole time.  Also there were ants in my room all over the sink, so nothing was able to...This place sucks big time.  If you can, just pay a few more dollars and stay somewhere else.  First off, upon check in when i went to my room, there were no towels at all.  When I attempted to go to the guest counter to obtain more, there weren't any.  So I thought that i would wait until morning to get some then, however there still were no towels.  I was then told that the only person that had a key to the towel room hadn't arrived yet.  When I asked for a manager, the girl behind the counter acted dumbfounded.  She said that she was new and didn't haven't contact info or no how to help me.  So you mean to tell me if she is there by herself and the place catches on fire, she doesn't know who to call.  PLEASE!  In order to get clean towels, which should have been in the room upon check in to begin with, I had to call the corporate office.  Then low and behold, all of a sudden I look out the window and what do I see, but a sorry "A" manager waltz accross the parking lot to the towel closet to bring me my towels.  So the sorry son of a gun was sitting in the back of the office the whole time.  Also there were ants in my room all over the sink, so nothing was able to be left out over there.  And the renovations that they brag about on line are not all that.  the picture that they post on the site is just that, a picture.  i don't know where its a picture of, but its sure NOT this place.  DO NOT STAY HERE.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +793,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +825,770 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_495.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_495.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r561934801-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>56045</t>
+  </si>
+  <si>
+    <t>244311</t>
+  </si>
+  <si>
+    <t>561934801</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>Quiet and Comfortable</t>
+  </si>
+  <si>
+    <t>This location is quiet and comfortable and clean. The staff is super friendly. The bed was comfortable, hot water, and coffee in the morning. For a motel6 they do leave the light on for you :). I spent two nights at this location and I most certainly will come back again!</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r383277108-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>383277108</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Love the staff</t>
+  </si>
+  <si>
+    <t>The people in check in were very helpful when we got their some things was not working for use and they came out and got it right stayed there for some time .The price is great I don't care to stay at a motel but this one was very nice. Manager was always there to help you. I would stay at this motel when ever I'm in Texas and need a room</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r331989318-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
   </si>
   <si>
-    <t>56045</t>
-  </si>
-  <si>
-    <t>244311</t>
-  </si>
-  <si>
     <t>331989318</t>
   </si>
   <si>
@@ -174,9 +216,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team Member at Motel 6 Houston - Jersey Village, responded to this reviewResponded December 14, 2015</t>
   </si>
   <si>
@@ -231,9 +270,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team member at Motel 6 Houston - Jersey Village, responded to this reviewResponded July 9, 2015</t>
   </si>
   <si>
@@ -243,6 +279,39 @@
     <t>This is the most nastiest ghetto place I ever stayed at. They have kids walking around pushing on other people doors .the manager just stand there a watch them and the sad part her child is in it too .the room are stick like it's not been clean in mouths. You can't complain to the manager .she says deal with it or leave .if you have a choice between sleeping in you car or the I would sleep in the car because it's a waste of money to go there More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r265252018-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>265252018</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>peace and quite</t>
+  </si>
+  <si>
+    <t>For an outsider trying to settle down in this area,I had no complaints about this establishment.. One thing would be a good recommendation..  a bottle of shampoo.. other then that rooms are cheaper than any market out there ,and hospitality couldn't go wrong..they had wifi but wasn't working for the time I was there</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r255210853-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>255210853</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>Nasty</t>
+  </si>
+  <si>
+    <t>This hotel was a mess roaches crawling around angela has big cut inside to see all the way through it holes in the wall dirty floors fools day I will never ever stay here cigarette burns on the cover we had to wrap up in our own rules to keep from laying on the sheets this is disgusting</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r239846658-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
   </si>
   <si>
@@ -303,6 +372,45 @@
     <t>Made the reservation online. Got there front desk person pleasant. Opened the room door, no carpet, cheap linoleum with dried mud prints. Bed cover was dingy with cuts in it. Sink counter had large dried water spots. Toilet had black mold and a ring in it. Tub looked like it had been patched, unsuccessfully around the spout and toggle drain. Bed was a mattress on a wooden like frame. You had to pay for wi-fi. Went back to front desk and reported the conditions. The clerk said they clean the rooms everyday. Ummm CLEARLY someone was skipping THIS one for quite some time! A positive-she was pleasant when we requested a refund.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r218091873-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>218091873</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Room for inprovment</t>
+  </si>
+  <si>
+    <t>9/16/10The wife and I are heading for my Navy Reunion in Myrtle Beach SC. We stopped here our third night out. RM. 119 was fare, clean but not quit. The service was friendly. There seem to be a lot of long term people here.The front street is a one-way street and cars are moving fast. It is hard to slow down to get into the Motel safely.Cap &amp; Virginia</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r209951728-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>209951728</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>Old tired and worn out</t>
+  </si>
+  <si>
+    <t>This is not a motel that represents the Motel 6 I have enjoyed in the past. They initially tried to put me in a smoking room. The receptionist said it was a non smoking room but there was no signs indicating that, it smelled of smoke and there were no "no smoking" signs. It even had cigarette burns in the comforter. I requested another room , was moved, it did have a no smoking sign but it too had an ashtray and smelled of smoke. The bed was beyond worn out. The ceiling was black with mold or mildew over the shower. It was late, I had driven over a thousand miles that day. So I accepted that it had to be good enough, but I will think twice before trusting the Motel 6 brandMoreShow less</t>
+  </si>
+  <si>
+    <t>This is not a motel that represents the Motel 6 I have enjoyed in the past. They initially tried to put me in a smoking room. The receptionist said it was a non smoking room but there was no signs indicating that, it smelled of smoke and there were no "no smoking" signs. It even had cigarette burns in the comforter. I requested another room , was moved, it did have a no smoking sign but it too had an ashtray and smelled of smoke. The bed was beyond worn out. The ceiling was black with mold or mildew over the shower. It was late, I had driven over a thousand miles that day. So I accepted that it had to be good enough, but I will think twice before trusting the Motel 6 brandMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r202092851-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
   </si>
   <si>
@@ -360,6 +468,42 @@
     <t>I expect a low-end motel to have some problems, but this one had none. My room was clean. The parking was well lit and ample. The front desk was efficient (if somewhat laid back). There is a Mexican restaurant (Taqueria Arandas) within walking distance. This Motel 6 is one of those places where you get more than you paid for ($36.99/night). You do have to pay extra for wifi ($2.99/ day), but even so, it's a bargain. I stayed for six days on a business trip, and the only negatives were: no microwave or fridge, and you have to go to the front desk every evening to renew your wifi ("That's the way the boss wants it," the clerk said.) A bargain.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r116837214-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>116837214</t>
+  </si>
+  <si>
+    <t>08/17/2011</t>
+  </si>
+  <si>
+    <t>Affordable accommodation</t>
+  </si>
+  <si>
+    <t>I would not have known about Motel 6 Houston if my friend had not recommended. I was looking for a fair price and affordable accommodation for two days and that was how stayed in Jersey Village. I found it a true value motel if as I did not have expectations of luxuries rather the need was only for comforts which I believe was derived.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r89264255-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
+  </si>
+  <si>
+    <t>89264255</t>
+  </si>
+  <si>
+    <t>12/07/2010</t>
+  </si>
+  <si>
+    <t>What you pay is what you get...</t>
+  </si>
+  <si>
+    <t>If you're willing to adjust few negatives here and there, may serve the purpose (of staying overnight someplace).PROSWell lit. Appears safer.Cheap price.Hardwood floors. LCD tv.Heater works.Shower was OK.CONSSheets and Towels weren't spotless.Faucet pressure was badFewer towels.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56045-d244311-r52612771-Motel_6_Houston_Jersey_Village-Jersey_Village_Texas.html</t>
   </si>
   <si>
@@ -394,9 +538,6 @@
   </si>
   <si>
     <t>August 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>This place sucks big time.  If you can, just pay a few more dollars and stay somewhere else.  First off, upon check in when i went to my room, there were no towels at all.  When I attempted to go to the guest counter to obtain more, there weren't any.  So I thought that i would wait until morning to get some then, however there still were no towels.  I was then told that the only person that had a key to the towel room hadn't arrived yet.  When I asked for a manager, the girl behind the counter acted dumbfounded.  She said that she was new and didn't haven't contact info or no how to help me.  So you mean to tell me if she is there by herself and the place catches on fire, she doesn't know who to call.  PLEASE!  In order to get clean towels, which should have been in the room upon check in to begin with, I had to call the corporate office.  Then low and behold, all of a sudden I look out the window and what do I see, but a sorry "A" manager waltz accross the parking lot to the towel closet to bring me my towels.  So the sorry son of a gun was sitting in the back of the office the whole time.  Also there were ants in my room all over the sink, so nothing was able to...This place sucks big time.  If you can, just pay a few more dollars and stay somewhere else.  First off, upon check in when i went to my room, there were no towels at all.  When I attempted to go to the guest counter to obtain more, there weren't any.  So I thought that i would wait until morning to get some then, however there still were no towels.  I was then told that the only person that had a key to the towel room hadn't arrived yet.  When I asked for a manager, the girl behind the counter acted dumbfounded.  She said that she was new and didn't haven't contact info or no how to help me.  So you mean to tell me if she is there by herself and the place catches on fire, she doesn't know who to call.  PLEASE!  In order to get clean towels, which should have been in the room upon check in to begin with, I had to call the corporate office.  Then low and behold, all of a sudden I look out the window and what do I see, but a sorry "A" manager waltz accross the parking lot to the towel closet to bring me my towels.  So the sorry son of a gun was sitting in the back of the office the whole time.  Also there were ants in my room all over the sink, so nothing was able to be left out over there.  And the renovations that they brag about on line are not all that.  the picture that they post on the site is just that, a picture.  i don't know where its a picture of, but its sure NOT this place.  DO NOT STAY HERE.More</t>
@@ -934,7 +1075,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -951,14 +1092,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -974,7 +1111,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -983,25 +1120,25 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1012,14 +1149,10 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1035,7 +1168,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1044,25 +1177,25 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1074,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1096,7 +1229,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1105,25 +1238,25 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1134,10 +1267,14 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1153,7 +1290,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1162,22 +1299,26 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
         <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -1187,8 +1328,12 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
       <c r="Y6" t="s">
         <v>86</v>
       </c>
@@ -1227,25 +1372,25 @@
         <v>91</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
         <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1253,7 +1398,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -1269,7 +1414,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1278,41 +1423,37 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
         <v>96</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>97</v>
       </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
       <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" t="s">
-        <v>93</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1320,7 +1461,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -1336,7 +1477,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1345,49 +1486,39 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
         <v>102</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
         <v>103</v>
       </c>
-      <c r="K9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>106</v>
-      </c>
       <c r="O9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1403,7 +1534,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1412,49 +1543,35 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
         <v>108</v>
       </c>
-      <c r="J10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" t="s">
-        <v>111</v>
-      </c>
       <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" t="s">
-        <v>93</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -1470,7 +1587,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1479,41 +1596,37 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>115</v>
       </c>
-      <c r="J11" t="s">
+      <c r="O11" t="s">
         <v>116</v>
       </c>
-      <c r="K11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" t="s">
-        <v>118</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
         <v>4</v>
       </c>
-      <c r="N11" t="s">
-        <v>119</v>
-      </c>
-      <c r="O11" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1521,7 +1634,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -1537,7 +1650,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1546,41 +1659,37 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
         <v>121</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>122</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>123</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>124</v>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>125</v>
-      </c>
-      <c r="O12" t="s">
-        <v>126</v>
-      </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1588,7 +1697,535 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
         <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>21267</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
